--- a/Excel Proyecto.xlsx
+++ b/Excel Proyecto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FX506\Desktop\Proyecto_TFG_Laura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFD2968-B597-4D37-ACD7-0FB1F3A7C9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A781AC1-DDFA-4475-B409-2F884A7EFC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C4A74DD1-E16E-4E57-8377-910EEAB9A2CB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>5h</t>
+  </si>
+  <si>
+    <t>(hecho)</t>
+  </si>
+  <si>
+    <t>(proceso)</t>
   </si>
 </sst>
 </file>
@@ -615,7 +621,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +668,9 @@
       <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
@@ -680,7 +688,9 @@
       <c r="D3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
@@ -698,7 +708,9 @@
       <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
@@ -724,7 +736,9 @@
       <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
@@ -742,7 +756,9 @@
       <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
@@ -860,7 +876,9 @@
       <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>32</v>
       </c>
@@ -910,7 +928,9 @@
       <c r="D17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>37</v>
       </c>
@@ -928,7 +948,9 @@
       <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1000,7 +1022,9 @@
       <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>48</v>
       </c>
